--- a/op.xlsx
+++ b/op.xlsx
@@ -1,84 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <definedNames/>
+  <calcPr calcId="122211" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>lớp</t>
-  </si>
-  <si>
-    <t>an</t>
-  </si>
-  <si>
-    <t>hải</t>
-  </si>
-  <si>
-    <t>nga</t>
-  </si>
-  <si>
-    <t>tú</t>
-  </si>
-  <si>
-    <t>ngọc</t>
-  </si>
-  <si>
-    <t>quỳnh</t>
-  </si>
-  <si>
-    <t>dũng</t>
-  </si>
-  <si>
-    <t>c01</t>
-  </si>
-  <si>
-    <t>c02</t>
-  </si>
-  <si>
-    <t>c03</t>
-  </si>
-  <si>
-    <t>c05</t>
-  </si>
-  <si>
-    <t>c06</t>
-  </si>
-  <si>
-    <t>c07</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -97,19 +48,111 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="6134100" cy="885825"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -398,100 +441,167 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>14</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>class</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>an</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>c01</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>hải</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>c02</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>hello</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>nga</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>c03</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>tú</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>ngọc</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>c05</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>quỳnh</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>c06</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>dũng</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>c07</t>
+        </is>
+      </c>
+    </row>
+    <row r="9"/>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/op.xlsx
+++ b/op.xlsx
@@ -1,129 +1,3 @@
-
-<file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
-  </bookViews>
-  <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet3" sheetId="3" state="visible" r:id="rId3"/>
-  </sheets>
-  <definedNames/>
-  <calcPr calcId="122211" fullCalcOnLoad="1"/>
-</workbook>
-</file>
-
-<file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-  </fonts>
-  <fills count="2">
-    <fill>
-      <patternFill/>
-    </fill>
-    <fill>
-      <patternFill patternType="gray125"/>
-    </fill>
-  </fills>
-  <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-  </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-  </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-  </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-  </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
-</styleSheet>
-</file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
@@ -142,6 +16,34 @@
       </nvPicPr>
       <blipFill>
         <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="6134100" cy="885825"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="2" name="Image 2" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
